--- a/public/excel/SolicitudEmpleo.xlsx
+++ b/public/excel/SolicitudEmpleo.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AC66E9-5B63-4146-AEF0-C17D602CFCC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adonay Calix\OneDrive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AD316D-1552-497C-BD95-A4905DA02ECB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>REG-RH.102</t>
   </si>
@@ -46,9 +51,6 @@
     <t>I    DATOS GENERALES</t>
   </si>
   <si>
-    <t>Veamos si se cambia</t>
-  </si>
-  <si>
     <t>Primer apellido</t>
   </si>
   <si>
@@ -137,15 +139,6 @@
   </si>
   <si>
     <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Al presentar esta solicitud, deberá usted acompañar dos  referencias por escrito de trabajos anteriores y hoja de antecedentes emitida por la DNIC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versión 2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aprobada 12 agosto 2009</t>
   </si>
   <si>
     <t>III    COMPETENCIAS</t>
@@ -464,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -588,11 +581,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4A4A4A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4A4A4A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -621,7 +627,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -646,109 +651,109 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,9 +763,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,8 +819,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="266700" y="142875"/>
+          <a:ext cx="609600" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,11 +1124,11 @@
   </sheetPr>
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C9" sqref="C9:G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.140625" customWidth="1"/>
@@ -1135,67 +1145,67 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="6.75" customHeight="1">
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1">
       <c r="A7" s="4"/>
@@ -1214,18 +1224,18 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13">
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -1267,42 +1277,40 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="33"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="34" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="34" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
@@ -1322,34 +1330,34 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="11"/>
@@ -1366,22 +1374,22 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="5"/>
@@ -1397,38 +1405,38 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="34" t="s">
+      <c r="H23" s="31"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="11"/>
@@ -1444,38 +1452,38 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="34" t="s">
+      <c r="H26" s="31"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="56"/>
@@ -1504,34 +1512,34 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="H30" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="11"/>
@@ -1547,19 +1555,19 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="A32" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="11"/>
@@ -1575,32 +1583,32 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
+      <c r="A34" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="26"/>
       <c r="E35" s="5"/>
       <c r="F35" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="G35" s="26"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -1614,7 +1622,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -1631,14 +1639,14 @@
       <c r="A38" s="11"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="D38" s="26"/>
       <c r="E38" s="5"/>
       <c r="F38" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="G38" s="26"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -1646,7 +1654,7 @@
     </row>
     <row r="39" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1660,157 +1668,151 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="A41" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
     </row>
     <row r="43" spans="1:11" ht="32.25" customHeight="1">
       <c r="A43" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="43" t="s">
+      <c r="J43" s="43"/>
+      <c r="K43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="19" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="44" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="20"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="20"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="19"/>
     </row>
     <row r="46" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="20"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="11"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1828,66 +1830,66 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="22" t="s">
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A56" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="22" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="57" spans="1:11" ht="9.75" customHeight="1">
       <c r="A57" s="11"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="5.25" customHeight="1">
@@ -1895,204 +1897,204 @@
     </row>
     <row r="60" spans="1:11" ht="18" customHeight="1">
       <c r="A60" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B60" s="41"/>
-      <c r="C60" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
+      <c r="C60" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
       <c r="I60" s="43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J60" s="43"/>
       <c r="K60" s="43"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
+      <c r="A61" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
+      <c r="A62" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1">
-      <c r="A63" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
+      <c r="A63" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
     </row>
     <row r="64" spans="1:11" ht="9.75" customHeight="1">
       <c r="A64" s="11"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A67" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A68" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="22" t="s">
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A67" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A68" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
     </row>
     <row r="69" spans="1:11" ht="9.75" customHeight="1">
       <c r="A69" s="11"/>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1">
-      <c r="A70" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
+      <c r="A70" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A72" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A73" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="22" t="s">
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A72" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A73" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:11" ht="9.75" customHeight="1">
       <c r="A74" s="11"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="5.25" customHeight="1">
@@ -2100,148 +2102,148 @@
     </row>
     <row r="77" spans="1:11" ht="32.25" customHeight="1">
       <c r="A77" s="41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
       <c r="D77" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G77" s="41"/>
       <c r="H77" s="43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I77" s="43"/>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
       <c r="F79" s="44"/>
       <c r="G79" s="44"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
       <c r="F84" s="44"/>
       <c r="G84" s="44"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1">
-      <c r="A86" s="35"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="11"/>
     </row>
     <row r="88" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2259,7 +2261,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="8.25" customHeight="1">
@@ -2267,170 +2269,169 @@
     </row>
     <row r="92" spans="1:11" ht="18" customHeight="1">
       <c r="A92" s="41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
       <c r="D92" s="42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G92" s="41"/>
       <c r="H92" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I92" s="43"/>
       <c r="J92" s="43"/>
       <c r="K92" s="43"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="44"/>
       <c r="E93" s="44"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="32">
+        <v>66</v>
+      </c>
+      <c r="E96" s="29">
         <v>0</v>
       </c>
-      <c r="F96" s="32"/>
-    </row>
-    <row r="97" spans="1:11" ht="15"/>
+      <c r="F96" s="29"/>
+    </row>
     <row r="98" spans="1:11" ht="15" customHeight="1">
-      <c r="A98" s="21"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="12"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="12"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
+      <c r="A101" s="22"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A103" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="A103" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
+      <c r="H103" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I103" s="31"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="31"/>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1">
-      <c r="A104" s="21"/>
+      <c r="A104" s="20"/>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1">
-      <c r="A105" s="21"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A107" s="25"/>
+      <c r="A107" s="22"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A108" s="25"/>
+      <c r="A108" s="22"/>
     </row>
     <row r="109" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A109" s="26"/>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A110" s="28"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111" spans="1:11" ht="25.5" customHeight="1"/>
     <row r="112" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="138">
+  <mergeCells count="140">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G15:H15"/>
@@ -2569,6 +2570,8 @@
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="H98:K102"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.44027777777777999" header="0.51180555555554996" footer="0.51180555555554996"/>
@@ -2583,7 +2586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
@@ -2600,7 +2603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
